--- a/pages/04.HDM Doc 2.2/Planning Template.xlsx
+++ b/pages/04.HDM Doc 2.2/Planning Template.xlsx
@@ -11,18 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="64">
   <si>
     <t>Cloud Type</t>
   </si>
   <si>
-    <t>VCD(Cloud Director)</t>
+    <t>VCS(IBM)</t>
   </si>
   <si>
     <t xml:space="preserve">Deployment Mode </t>
   </si>
   <si>
-    <t>Cluster</t>
+    <t>Standalone</t>
   </si>
   <si>
     <t>&lt;= Choose here</t>
@@ -31,7 +31,7 @@
     <t>Resource Allocation</t>
   </si>
   <si>
-    <t>Ultra-lite</t>
+    <t>Standard</t>
   </si>
   <si>
     <t>Number of ESXi on premise Cluster</t>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>10.51.1.100-10.51.1.150</t>
+  </si>
+  <si>
+    <t>&lt;= At least IPs required (warm migrations will use IPs from this pool)</t>
   </si>
   <si>
     <t>10.51.1.1</t>
@@ -206,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -230,6 +233,14 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font/>
+    <font>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <i/>
+      <color rgb="FFFF0000"/>
     </font>
     <font>
       <b/>
@@ -292,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -309,26 +320,35 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -592,7 +612,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>4.0</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -603,12 +623,11 @@
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <f>if(B1="VCD(Cloud Director)","&lt;= Not applicable to VCD put 1 here", "&lt;= Fill this")</f>
-        <v>&lt;= Not applicable to VCD put 1 here</v>
+      <c r="C8" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -618,119 +637,119 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="3">
         <f>1+E48</f>
         <v>3</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="3">
         <f>1+E55</f>
         <v>3</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="3">
         <f>1+E62</f>
         <v>3</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="3">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="E16" s="3" t="s">
+      <c r="B16" s="8"/>
+      <c r="E16" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="3">
         <f>E73</f>
-        <v>50</v>
-      </c>
-      <c r="E17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="3">
         <f>E80</f>
         <v>2</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="6"/>
+      <c r="B19" s="8"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -738,32 +757,32 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="12"/>
     </row>
     <row r="27">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -771,32 +790,32 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="12"/>
     </row>
     <row r="31">
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -804,32 +823,32 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="12"/>
     </row>
     <row r="35">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -837,23 +856,23 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -861,46 +880,46 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="10"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="14"/>
+      <c r="C41" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6"/>
+      <c r="A43" s="8"/>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="48">
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E48" s="3">
@@ -912,7 +931,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -920,35 +939,35 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="51">
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52">
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="55">
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -963,7 +982,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -971,38 +990,38 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="59">
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="62">
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E62" s="3">
@@ -1014,15 +1033,15 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="64">
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C64" s="5" t="s">
@@ -1030,47 +1049,47 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="66">
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="73">
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E73" s="3">
-        <f>MAX(50,if(AND($B$2="Cluster",NOT(OR($B$3="Lite",$B$3="Ultra-lite"))), 2+2*$C$8+15, 20))</f>
-        <v>50</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>45</v>
+        <f>MAX(70,if(AND($B$2="Cluster",NOT(OR($B$3="Lite",$B$3="Ultra-lite"))), 2+2*$C$8+15 + 2*20, 50))</f>
+        <v>70</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="74">
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -1078,39 +1097,39 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76">
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="77">
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="6" t="s">
-        <v>59</v>
+      <c r="A78" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="6" t="s">
-        <v>60</v>
+      <c r="A79" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="80">
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E80" s="3">
         <f>if(AND($B$2="Cluster",NOT(OR($B$3="Lite",$B$3="Ultra-lite"))), 2+$C$8, 2)</f>
@@ -1119,10 +1138,10 @@
       <c r="F80" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H80" s="13"/>
+      <c r="H80" s="16"/>
     </row>
     <row r="81">
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C81" s="5" t="s">
@@ -1130,20 +1149,20 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83">
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="84">
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="8" t="s">
         <v>47</v>
       </c>
     </row>
